--- a/temp project/doc/zd.xlsx
+++ b/temp project/doc/zd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="24" windowWidth="22968" windowHeight="9432"/>
+    <workbookView xWindow="96" yWindow="24" windowWidth="22968" windowHeight="9432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ruku" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>码/支</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,35 +38,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>销售规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纹路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软硬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>整支</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>销售规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总件数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零头米明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零头码明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零头合计明细</t>
+    <t>整支数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散剪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际出库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际入库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,63 +158,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>销售数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散剪数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散剪规格(码/支)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纹路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软硬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>厚度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底布</t>
+  </si>
+  <si>
+    <t>出库明细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -186,13 +217,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,8 +270,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,89 +591,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
+    <col min="3" max="3" width="7.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7.21875" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+    </row>
+    <row r="2" spans="1:24" s="2" customFormat="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="S2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="T2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="V2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="W2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="X2" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -589,107 +733,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:BG2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="14" width="8.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="8.77734375" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" customWidth="1"/>
-    <col min="19" max="19" width="9" customWidth="1"/>
-    <col min="20" max="20" width="16.109375" customWidth="1"/>
-    <col min="24" max="24" width="10.21875" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="3"/>
+    <col min="3" max="5" width="8.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="3" customWidth="1"/>
+    <col min="15" max="16" width="8.44140625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10" style="3" customWidth="1"/>
+    <col min="19" max="19" width="8.77734375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="9.21875" style="3" customWidth="1"/>
+    <col min="21" max="24" width="8.77734375" style="3" customWidth="1"/>
+    <col min="25" max="59" width="8.88671875" style="7"/>
+    <col min="60" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:59">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+    </row>
+    <row r="2" spans="1:59" s="2" customFormat="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="U2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="W2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="AX2" s="7"/>
+      <c r="AY2" s="7"/>
+      <c r="AZ2" s="7"/>
+      <c r="BA2" s="7"/>
+      <c r="BB2" s="7"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/temp project/doc/zd.xlsx
+++ b/temp project/doc/zd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="24" windowWidth="22968" windowHeight="9432" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="24" windowWidth="22968" windowHeight="9432" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ruku" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>码/支</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>销售规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总件数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实际出库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +154,42 @@
   </si>
   <si>
     <t>出库明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装规格(码/支)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装规格(米/支)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售规格(码/支)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售规格(米/支)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格(米/支)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格(码/支)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、按支管理的仓库，不能输入散剪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、单位是支时，不能输入零头明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、批次计价的仓库，也必须区分批号管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +208,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -260,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,6 +324,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -296,6 +335,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,7 +636,7 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -611,51 +653,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
@@ -663,19 +705,19 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>3</v>
@@ -684,34 +726,34 @@
         <v>4</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="T2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="X2" s="5"/>
     </row>
@@ -733,148 +775,157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG2"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="5" width="8.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9" style="3" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="3" customWidth="1"/>
-    <col min="15" max="16" width="8.44140625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10" style="3" customWidth="1"/>
-    <col min="19" max="19" width="8.77734375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="9.21875" style="3" customWidth="1"/>
-    <col min="21" max="24" width="8.77734375" style="3" customWidth="1"/>
-    <col min="25" max="59" width="8.88671875" style="7"/>
-    <col min="60" max="16384" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="8.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="3" customWidth="1"/>
+    <col min="11" max="12" width="13" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9" style="3" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" style="3" customWidth="1"/>
+    <col min="17" max="18" width="8.44140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="10" style="3" customWidth="1"/>
+    <col min="21" max="21" width="8.77734375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="9.21875" style="3" customWidth="1"/>
+    <col min="23" max="26" width="8.77734375" style="3" customWidth="1"/>
+    <col min="27" max="61" width="8.88671875" style="7"/>
+    <col min="62" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:61">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+    </row>
+    <row r="2" spans="1:61" s="2" customFormat="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="L2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-    </row>
-    <row r="2" spans="1:59" s="2" customFormat="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="O2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="4" t="s">
+      <c r="W2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
@@ -908,18 +959,20 @@
       <c r="BE2" s="7"/>
       <c r="BF2" s="7"/>
       <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="D1:H1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -929,13 +982,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="24" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="24" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="24" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="24" customHeight="1"/>
+    <row r="5" spans="1:1" ht="24" customHeight="1"/>
+    <row r="6" spans="1:1" ht="24" customHeight="1"/>
+    <row r="7" spans="1:1" ht="24" customHeight="1"/>
+    <row r="8" spans="1:1" ht="24" customHeight="1"/>
+    <row r="9" spans="1:1" ht="24" customHeight="1"/>
+    <row r="10" spans="1:1" ht="24" customHeight="1"/>
+    <row r="11" spans="1:1" ht="24" customHeight="1"/>
+    <row r="12" spans="1:1" ht="24" customHeight="1"/>
+    <row r="13" spans="1:1" ht="24" customHeight="1"/>
+    <row r="14" spans="1:1" ht="24" customHeight="1"/>
+    <row r="15" spans="1:1" ht="24" customHeight="1"/>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>